--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3798355.033852823</v>
+        <v>3797012.507852774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1183418.911521202</v>
+        <v>1183418.911521203</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383260.7088960279</v>
+        <v>383260.7088960303</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7807474.451034747</v>
+        <v>7807474.451034746</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>183.4693513325733</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>157.5243183694689</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>86.97637841063955</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,28 +941,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>98.74855378848305</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>174.2795553751036</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.818146839772137</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.83589518354175</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.9261899533541</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>115.5785074418531</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>7.837102735344149</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1376,7 +1376,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F11" t="n">
         <v>316.885015469746</v>
@@ -1388,7 +1388,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T11" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526523</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V11" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W11" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X11" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840892</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676731</v>
       </c>
       <c r="S12" t="n">
         <v>149.2146408812902</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997183</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666236</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624688</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460371</v>
+        <v>56.4429323746037</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G13" t="n">
-        <v>76.98582764574813</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H13" t="n">
-        <v>63.219680698667</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S13" t="n">
         <v>116.3521968385659</v>
@@ -1582,7 +1582,7 @@
         <v>133.6214948185867</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1622,10 +1622,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H14" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795023</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019366</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T14" t="n">
         <v>123.2081244353881</v>
@@ -1704,7 +1704,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S15" t="n">
         <v>149.2146408812902</v>
@@ -1777,13 +1777,13 @@
         <v>55.43001775096577</v>
       </c>
       <c r="G16" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574812</v>
       </c>
       <c r="H16" t="n">
         <v>63.21968069866698</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U16" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V16" t="n">
         <v>162.1466130518625</v>
@@ -1856,13 +1856,13 @@
         <v>316.885015469746</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0508974529291</v>
+        <v>323.0508974529302</v>
       </c>
       <c r="H17" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019343</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T17" t="n">
         <v>123.2081244353881</v>
@@ -1941,7 +1941,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676731</v>
       </c>
       <c r="S18" t="n">
         <v>149.2146408812902</v>
@@ -2017,10 +2017,10 @@
         <v>76.98582764574812</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S19" t="n">
         <v>116.3521968385658</v>
@@ -2099,7 +2099,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2138,7 +2138,7 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981703</v>
       </c>
       <c r="W20" t="n">
         <v>259.2499384454475</v>
@@ -2178,7 +2178,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I21" t="n">
-        <v>47.74894400914857</v>
+        <v>47.74894400914854</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676732</v>
       </c>
       <c r="S21" t="n">
         <v>149.2146408812902</v>
@@ -2254,10 +2254,10 @@
         <v>76.98582764574812</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S22" t="n">
         <v>116.3521968385658</v>
@@ -2336,7 +2336,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019348</v>
+        <v>33.3249898601935</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917444</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.05405284676735</v>
+        <v>25.05405284676736</v>
       </c>
       <c r="S24" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T24" t="n">
         <v>195.2890311093384</v>
@@ -2494,7 +2494,7 @@
         <v>63.21968069866699</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497094</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S25" t="n">
         <v>116.3521968385658</v>
@@ -2530,7 +2530,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V25" t="n">
         <v>162.1466130518625</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C26" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D26" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F26" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G26" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H26" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.3249898601934</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917434</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T26" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U26" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
-        <v>237.7612281981693</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W26" t="n">
         <v>259.2499384454475</v>
@@ -2621,7 +2621,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.246908384088</v>
+        <v>296.246908384087</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997173</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666226</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624679</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E28" t="n">
-        <v>56.4429323746036</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096567</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G28" t="n">
-        <v>76.98582764574802</v>
+        <v>76.98582764574786</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866689</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633779</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.70377341497283</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S28" t="n">
         <v>116.3521968385658</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185865</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U28" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V28" t="n">
-        <v>162.1466130518624</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W28" t="n">
-        <v>196.5319680646254</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C29" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D29" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E29" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F29" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G29" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H29" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019341</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917435</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T29" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U29" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V29" t="n">
         <v>237.7612281981694</v>
@@ -2858,7 +2858,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997174</v>
+        <v>89.84094990997181</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666228</v>
+        <v>77.25579082666235</v>
       </c>
       <c r="D31" t="n">
-        <v>58.6244427462468</v>
+        <v>58.62444274624687</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460361</v>
+        <v>56.44293237460369</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096734</v>
+        <v>55.43001775096576</v>
       </c>
       <c r="G31" t="n">
-        <v>76.98582764574803</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866691</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I31" t="n">
-        <v>34.9620471463378</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.70377341497086</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S31" t="n">
         <v>116.3521968385658</v>
@@ -3004,7 +3004,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U31" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V31" t="n">
         <v>162.1466130518625</v>
@@ -3013,10 +3013,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X31" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>292.742811391515</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C32" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D32" t="n">
-        <v>264.6920113487174</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E32" t="n">
-        <v>291.9393398002962</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F32" t="n">
-        <v>316.8850154697459</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G32" t="n">
-        <v>323.050897452929</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019343</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917441</v>
       </c>
       <c r="T32" t="n">
-        <v>123.208124435388</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.1737578526517</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V32" t="n">
         <v>237.7612281981694</v>
@@ -3095,7 +3095,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997176</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666229</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624681</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E34" t="n">
-        <v>56.44293237460363</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F34" t="n">
-        <v>55.4300177509657</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574803</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866693</v>
+        <v>63.21968069866698</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633782</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497087</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S34" t="n">
         <v>116.3521968385658</v>
@@ -3250,10 +3250,10 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X34" t="n">
-        <v>135.7186251170716</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C35" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D35" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F35" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G35" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H35" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795006</v>
       </c>
       <c r="I35" t="n">
-        <v>33.32498986019347</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.51083621917441</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T35" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U35" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V35" t="n">
         <v>237.7612281981694</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.8409499099718</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C37" t="n">
-        <v>77.25579082666233</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D37" t="n">
-        <v>58.62444274624686</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E37" t="n">
-        <v>56.44293237460367</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096575</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574809</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H37" t="n">
-        <v>63.21968069866696</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I37" t="n">
-        <v>34.96204714633786</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497092</v>
+        <v>41.7037734149709</v>
       </c>
       <c r="S37" t="n">
         <v>116.3521968385658</v>
@@ -3478,7 +3478,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V37" t="n">
         <v>162.1466130518625</v>
@@ -3487,7 +3487,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X37" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y37" t="n">
         <v>128.5936230801293</v>
@@ -3503,7 +3503,7 @@
         <v>292.742811391515</v>
       </c>
       <c r="C38" t="n">
-        <v>275.281861499042</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D38" t="n">
         <v>264.6920113487174</v>
@@ -3521,7 +3521,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019343</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.51083621917437</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T38" t="n">
         <v>123.208124435388</v>
@@ -3569,7 +3569,7 @@
         <v>279.7400704065035</v>
       </c>
       <c r="Y38" t="n">
-        <v>296.246908384088</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.84094990997176</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C40" t="n">
-        <v>77.25579082666229</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D40" t="n">
-        <v>58.62444274624681</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E40" t="n">
-        <v>56.44293237460363</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F40" t="n">
-        <v>55.4300177509657</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G40" t="n">
-        <v>76.98582764574805</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H40" t="n">
-        <v>63.21968069866692</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I40" t="n">
-        <v>34.96204714633782</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497088</v>
+        <v>41.7037734149709</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385658</v>
@@ -3727,7 +3727,7 @@
         <v>135.7186251170716</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5936230801292</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.1427912911795</v>
+        <v>336.1427912911798</v>
       </c>
       <c r="C41" t="n">
-        <v>318.6818413987065</v>
+        <v>318.6818413987068</v>
       </c>
       <c r="D41" t="n">
-        <v>308.0919912483819</v>
+        <v>308.0919912483822</v>
       </c>
       <c r="E41" t="n">
-        <v>335.3393196999608</v>
+        <v>335.339319699961</v>
       </c>
       <c r="F41" t="n">
-        <v>166.6513162323044</v>
+        <v>360.2849953694106</v>
       </c>
       <c r="G41" t="n">
-        <v>366.4508773525935</v>
+        <v>366.4508773525937</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.72496975985817</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>166.6081043350525</v>
+        <v>166.6081043350528</v>
       </c>
       <c r="U41" t="n">
-        <v>204.5737377523162</v>
+        <v>204.5737377523164</v>
       </c>
       <c r="V41" t="n">
-        <v>281.1612080978339</v>
+        <v>281.1612080978341</v>
       </c>
       <c r="W41" t="n">
-        <v>302.649918345112</v>
+        <v>302.6499183451122</v>
       </c>
       <c r="X41" t="n">
-        <v>323.140050306168</v>
+        <v>323.1400503061682</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.6468882837526</v>
+        <v>69.28823938678599</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.2409298096363</v>
+        <v>133.2409298096365</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6557707263268</v>
+        <v>120.655770726327</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0244226459113</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.84291227426814</v>
+        <v>99.84291227426839</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.3858075454126</v>
+        <v>120.3858075454128</v>
       </c>
       <c r="H43" t="n">
-        <v>106.6196605983314</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.36202704600234</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.41618907665358</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>159.7521767382303</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>177.0214747182513</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>213.2146564023781</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.9319479642902</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1186050167361</v>
+        <v>179.1186050167364</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.9936029797938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1427912911795</v>
+        <v>336.1427912911798</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6818413987065</v>
+        <v>318.6818413987068</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0919912483819</v>
+        <v>308.0919912483822</v>
       </c>
       <c r="E44" t="n">
-        <v>335.3393196999608</v>
+        <v>335.339319699961</v>
       </c>
       <c r="F44" t="n">
-        <v>360.2849953694104</v>
+        <v>360.2849953694106</v>
       </c>
       <c r="G44" t="n">
-        <v>366.4508773525935</v>
+        <v>366.4508773525937</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5481629502632</v>
+        <v>269.7302334791658</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>281.1612080978339</v>
+        <v>188.9791375689286</v>
       </c>
       <c r="W44" t="n">
-        <v>302.649918345112</v>
+        <v>302.6499183451122</v>
       </c>
       <c r="X44" t="n">
-        <v>323.140050306168</v>
+        <v>323.1400503061682</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.6468882837526</v>
+        <v>339.6468882837528</v>
       </c>
     </row>
     <row r="45">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>159.7521767382303</v>
+        <v>159.7521767382305</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0214747182511</v>
+        <v>177.0214747182513</v>
       </c>
       <c r="U46" t="n">
-        <v>150.0477040884744</v>
+        <v>150.0477040884712</v>
       </c>
       <c r="V46" t="n">
-        <v>205.546592951527</v>
+        <v>205.5465929515272</v>
       </c>
       <c r="W46" t="n">
-        <v>239.93194796429</v>
+        <v>239.9319479642902</v>
       </c>
       <c r="X46" t="n">
-        <v>179.1186050167361</v>
+        <v>179.1186050167364</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.9936029797938</v>
+        <v>171.993602979794</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4367,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>525.1941863946997</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C3" t="n">
-        <v>703.7721529630483</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D3" t="n">
-        <v>554.837743301797</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E3" t="n">
-        <v>395.6002882963414</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,49 +4410,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>266.3558523848238</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>266.3558523848238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.9877272387197</v>
+        <v>580.2569018213353</v>
       </c>
       <c r="C6" t="n">
-        <v>544.5346979575927</v>
+        <v>405.8038725402083</v>
       </c>
       <c r="D6" t="n">
-        <v>395.6002882963414</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6002882963414</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>249.0657303232264</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
         <v>110.334904905842</v>
@@ -4650,7 +4650,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>486.8488635328713</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9050472788936</v>
+        <v>788.0172005862892</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9050472788936</v>
+        <v>788.0172005862892</v>
       </c>
       <c r="Y6" t="n">
-        <v>718.9877272387197</v>
+        <v>580.2569018213353</v>
       </c>
     </row>
     <row r="7">
@@ -4711,13 +4711,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>721.6706963991336</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>478.2219197550335</v>
       </c>
       <c r="H8" t="n">
         <v>243.9530410142718</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.6850394389064</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.9255531013317</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>613.4725238202047</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>464.5381141589534</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4914,19 +4914,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X9" t="n">
-        <v>956.1408901213997</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y9" t="n">
-        <v>956.1408901213997</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -5021,28 +5021,28 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F11" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G11" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H11" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I11" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397094</v>
       </c>
       <c r="K11" t="n">
-        <v>636.959017072384</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5051,13 +5051,13 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q11" t="n">
         <v>3555.07941078475</v>
@@ -5069,19 +5069,19 @@
         <v>3486.886646926998</v>
       </c>
       <c r="T11" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V11" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y11" t="n">
         <v>2115.795709833817</v>
@@ -5106,7 +5106,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F12" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G12" t="n">
         <v>220.9013999505779</v>
@@ -5115,25 +5115,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I12" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J12" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K12" t="n">
-        <v>389.8361585289043</v>
+        <v>501.5556322366145</v>
       </c>
       <c r="L12" t="n">
-        <v>879.8185188908892</v>
+        <v>991.5379925985994</v>
       </c>
       <c r="M12" t="n">
-        <v>1503.584044098751</v>
+        <v>1154.255504693962</v>
       </c>
       <c r="N12" t="n">
-        <v>1884.88281579971</v>
+        <v>1810.237260669285</v>
       </c>
       <c r="O12" t="n">
-        <v>2028.63859174368</v>
+        <v>2343.916732697218</v>
       </c>
       <c r="P12" t="n">
         <v>2439.960350382057</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634037</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132397</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D13" t="n">
-        <v>361.0414928786469</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538292</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G13" t="n">
         <v>170.2750506853968</v>
       </c>
       <c r="H13" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I13" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J13" t="n">
         <v>138.7485218715119</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476434</v>
       </c>
       <c r="L13" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021217</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N13" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O13" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P13" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q13" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R13" t="n">
-        <v>1669.080268457736</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S13" t="n">
         <v>1551.55279690363</v>
@@ -5236,7 +5236,7 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X13" t="n">
         <v>718.9352368816878</v>
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955763</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352605</v>
+        <v>979.7795239352614</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233959</v>
+        <v>659.6936497233968</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921544</v>
+        <v>333.3796118921553</v>
       </c>
       <c r="H14" t="n">
-        <v>104.7631941350825</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I14" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K14" t="n">
         <v>636.9590170723841</v>
@@ -5291,37 +5291,37 @@
         <v>2385.44658806871</v>
       </c>
       <c r="O14" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T14" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V14" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I15" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J15" t="n">
         <v>183.5040598342603</v>
       </c>
       <c r="K15" t="n">
-        <v>502.2386301474696</v>
+        <v>248.484133982606</v>
       </c>
       <c r="L15" t="n">
-        <v>625.0890486590298</v>
+        <v>738.4664943445908</v>
       </c>
       <c r="M15" t="n">
-        <v>1248.854573866892</v>
+        <v>1362.232019552453</v>
       </c>
       <c r="N15" t="n">
-        <v>1904.836329842215</v>
+        <v>2018.213775527776</v>
       </c>
       <c r="O15" t="n">
-        <v>2048.592105786185</v>
+        <v>2551.893247555709</v>
       </c>
       <c r="P15" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q15" t="n">
         <v>2662.220283762224</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D16" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G16" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H16" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I16" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J16" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715116</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476435</v>
       </c>
       <c r="L16" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N16" t="n">
         <v>1160.182765121766</v>
@@ -5464,7 +5464,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U16" t="n">
         <v>1218.326354289324</v>
@@ -5479,7 +5479,7 @@
         <v>718.9352368816878</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C17" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955763</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352614</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233968</v>
       </c>
       <c r="G17" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J17" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397094</v>
       </c>
       <c r="K17" t="n">
         <v>636.9590170723841</v>
@@ -5528,37 +5528,37 @@
         <v>2385.44658806871</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P17" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T17" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I18" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J18" t="n">
-        <v>183.5040598342603</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K18" t="n">
-        <v>502.2386301474696</v>
+        <v>128.0155738864516</v>
       </c>
       <c r="L18" t="n">
-        <v>625.0890486590298</v>
+        <v>617.9979342484364</v>
       </c>
       <c r="M18" t="n">
-        <v>1248.854573866892</v>
+        <v>1241.763459456299</v>
       </c>
       <c r="N18" t="n">
-        <v>1904.836329842215</v>
+        <v>1897.745215431622</v>
       </c>
       <c r="O18" t="n">
-        <v>2048.592105786185</v>
+        <v>2431.424687459555</v>
       </c>
       <c r="P18" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q18" t="n">
         <v>2662.220283762224</v>
@@ -5668,10 +5668,10 @@
         <v>106.41678735341</v>
       </c>
       <c r="I19" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J19" t="n">
-        <v>138.748521871512</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K19" t="n">
         <v>322.4370930476439</v>
@@ -5680,7 +5680,7 @@
         <v>588.1068164021221</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N19" t="n">
         <v>1160.182765121766</v>
@@ -5735,10 +5735,10 @@
         <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G20" t="n">
         <v>333.3796118921542</v>
@@ -5747,43 +5747,43 @@
         <v>104.7631941350823</v>
       </c>
       <c r="I20" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J20" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723836</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.239882220686</v>
+        <v>1170.239882220687</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393352</v>
+        <v>1780.224142393353</v>
       </c>
       <c r="N20" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O20" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P20" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R20" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S20" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T20" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U20" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V20" t="n">
         <v>2959.469363607594</v>
@@ -5826,7 +5826,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I21" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J21" t="n">
         <v>183.5040598342603</v>
@@ -5835,16 +5835,16 @@
         <v>502.2386301474696</v>
       </c>
       <c r="L21" t="n">
-        <v>992.2209905094544</v>
+        <v>625.0890486590299</v>
       </c>
       <c r="M21" t="n">
-        <v>1154.938502604817</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N21" t="n">
-        <v>1494.959119715748</v>
+        <v>1904.836329842215</v>
       </c>
       <c r="O21" t="n">
-        <v>2028.638591743681</v>
+        <v>2048.592105786186</v>
       </c>
       <c r="P21" t="n">
         <v>2439.960350382057</v>
@@ -5905,19 +5905,19 @@
         <v>106.41678735341</v>
       </c>
       <c r="I22" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715116</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476435</v>
       </c>
       <c r="L22" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M22" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N22" t="n">
         <v>1160.182765121766</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D23" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352604</v>
+        <v>979.779523935261</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233958</v>
+        <v>659.693649723396</v>
       </c>
       <c r="G23" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921546</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350824</v>
       </c>
       <c r="I23" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J23" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397092</v>
       </c>
       <c r="K23" t="n">
         <v>636.9590170723836</v>
@@ -6002,34 +6002,34 @@
         <v>2385.446588068709</v>
       </c>
       <c r="O23" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601287</v>
       </c>
       <c r="P23" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q23" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R23" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S23" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T23" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.433995982162</v>
       </c>
       <c r="U23" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V23" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X23" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y23" t="n">
         <v>2115.795709833817</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.5698188245173</v>
+        <v>987.5698188245175</v>
       </c>
       <c r="C24" t="n">
-        <v>813.1167895433903</v>
+        <v>813.1167895433905</v>
       </c>
       <c r="D24" t="n">
-        <v>664.182379882139</v>
+        <v>664.1823798821392</v>
       </c>
       <c r="E24" t="n">
-        <v>504.9449248766836</v>
+        <v>504.9449248766837</v>
       </c>
       <c r="F24" t="n">
         <v>358.4103669035686</v>
@@ -6060,31 +6060,31 @@
         <v>220.9013999505779</v>
       </c>
       <c r="H24" t="n">
-        <v>119.3328447905925</v>
+        <v>119.3328447905926</v>
       </c>
       <c r="I24" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J24" t="n">
-        <v>183.5040598342603</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K24" t="n">
-        <v>502.2386301474696</v>
+        <v>128.0155738864514</v>
       </c>
       <c r="L24" t="n">
-        <v>992.2209905094544</v>
+        <v>617.9979342484361</v>
       </c>
       <c r="M24" t="n">
-        <v>1154.938502604817</v>
+        <v>1241.763459456298</v>
       </c>
       <c r="N24" t="n">
-        <v>1494.959119715748</v>
+        <v>1897.745215431621</v>
       </c>
       <c r="O24" t="n">
-        <v>2028.638591743681</v>
+        <v>2431.424687459554</v>
       </c>
       <c r="P24" t="n">
-        <v>2439.960350382057</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q24" t="n">
         <v>2662.220283762224</v>
@@ -6102,7 +6102,7 @@
         <v>2060.786419775016</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.634311543273</v>
+        <v>1825.634311543274</v>
       </c>
       <c r="W24" t="n">
         <v>1571.396954815072</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634038</v>
+        <v>498.2942540634041</v>
       </c>
       <c r="C25" t="n">
-        <v>420.2581017132398</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D25" t="n">
         <v>361.041492878647</v>
@@ -6142,19 +6142,19 @@
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.10158821569499</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715121</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476441</v>
       </c>
       <c r="L25" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021223</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885119</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6184,13 +6184,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019625</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816881</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159006</v>
+        <v>589.0426883159009</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C26" t="n">
         <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352599</v>
+        <v>979.7795239352603</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233954</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G26" t="n">
-        <v>333.379611892154</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H26" t="n">
-        <v>104.7631941350822</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I26" t="n">
         <v>71.10158821569496</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397089</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723835</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L26" t="n">
         <v>1170.239882220686</v>
@@ -6236,7 +6236,7 @@
         <v>1780.224142393352</v>
       </c>
       <c r="N26" t="n">
-        <v>2385.446588068708</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O26" t="n">
         <v>2911.753343601287</v>
@@ -6269,7 +6269,7 @@
         <v>2415.035011231885</v>
       </c>
       <c r="Y26" t="n">
-        <v>2115.795709833816</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634031</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132392</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786465</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739963</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F28" t="n">
         <v>248.038512953829</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853966</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
         <v>71.10158821569496</v>
       </c>
       <c r="J28" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L28" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N28" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O28" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P28" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q28" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457735</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S28" t="n">
-        <v>1551.552796903628</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U28" t="n">
         <v>1218.326354289323</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019613</v>
+        <v>856.024757201962</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816869</v>
+        <v>718.9352368816875</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883158998</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347437</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352612</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233966</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350822</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I29" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J29" t="n">
         <v>249.2363626397091</v>
@@ -6476,37 +6476,37 @@
         <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
-        <v>2911.753343601287</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P29" t="n">
-        <v>3323.269600003672</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R29" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S29" t="n">
-        <v>3486.886646926996</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373421</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V29" t="n">
         <v>2959.469363607594</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915222</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833818</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6528,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F30" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G30" t="n">
         <v>220.9013999505779</v>
@@ -6537,7 +6537,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J30" t="n">
         <v>183.5040598342602</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498.2942540634049</v>
+        <v>498.2942540634037</v>
       </c>
       <c r="C31" t="n">
-        <v>420.258101713241</v>
+        <v>420.2581017132397</v>
       </c>
       <c r="D31" t="n">
-        <v>361.0414928786482</v>
+        <v>361.0414928786469</v>
       </c>
       <c r="E31" t="n">
-        <v>304.0284298739981</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F31" t="n">
-        <v>248.0385129538291</v>
+        <v>248.0385129538293</v>
       </c>
       <c r="G31" t="n">
-        <v>170.2750506853967</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H31" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I31" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J31" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K31" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L31" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M31" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885114</v>
       </c>
       <c r="N31" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O31" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P31" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q31" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S31" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T31" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U31" t="n">
-        <v>1218.326354289325</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V31" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>856.0247572019631</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X31" t="n">
-        <v>718.9352368816888</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.0426883159016</v>
+        <v>589.0426883159005</v>
       </c>
     </row>
     <row r="32">
@@ -6677,25 +6677,25 @@
         <v>1820.095900347437</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D32" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352597</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233951</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H32" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I32" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J32" t="n">
         <v>249.2363626397091</v>
@@ -6722,10 +6722,10 @@
         <v>3555.079410784748</v>
       </c>
       <c r="R32" t="n">
-        <v>3555.079410784748</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926996</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T32" t="n">
         <v>3362.43399598216</v>
@@ -6743,7 +6743,7 @@
         <v>2415.035011231885</v>
       </c>
       <c r="Y32" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F33" t="n">
-        <v>358.4103669035685</v>
+        <v>358.4103669035686</v>
       </c>
       <c r="G33" t="n">
         <v>220.9013999505779</v>
@@ -6774,7 +6774,7 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I33" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J33" t="n">
         <v>183.5040598342602</v>
@@ -6786,10 +6786,10 @@
         <v>992.2209905094542</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.526314340543</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N33" t="n">
-        <v>1494.959119715748</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O33" t="n">
         <v>2028.638591743681</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.2942540634033</v>
+        <v>498.294254063404</v>
       </c>
       <c r="C34" t="n">
-        <v>420.2581017132394</v>
+        <v>420.2581017132401</v>
       </c>
       <c r="D34" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786474</v>
       </c>
       <c r="E34" t="n">
-        <v>304.0284298739965</v>
+        <v>304.0284298739972</v>
       </c>
       <c r="F34" t="n">
-        <v>248.0385129538291</v>
+        <v>248.0385129538298</v>
       </c>
       <c r="G34" t="n">
-        <v>170.2750506853968</v>
+        <v>170.2750506853973</v>
       </c>
       <c r="H34" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I34" t="n">
-        <v>71.10158821569496</v>
+        <v>71.10158821569497</v>
       </c>
       <c r="J34" t="n">
         <v>138.7485218715119</v>
       </c>
       <c r="K34" t="n">
-        <v>322.4370930476437</v>
+        <v>322.4370930476433</v>
       </c>
       <c r="L34" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021216</v>
       </c>
       <c r="M34" t="n">
         <v>873.7644385885116</v>
@@ -6874,34 +6874,34 @@
         <v>1415.521203172265</v>
       </c>
       <c r="P34" t="n">
-        <v>1623.344941642819</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q34" t="n">
-        <v>1711.205292109221</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>1669.080268457735</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S34" t="n">
-        <v>1551.552796903629</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T34" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>1218.326354289323</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V34" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>856.0247572019615</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X34" t="n">
-        <v>718.9352368816872</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.0426883159</v>
+        <v>589.0426883159008</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C35" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D35" t="n">
         <v>1274.667745955761</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352597</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233951</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921541</v>
+        <v>333.3796118921537</v>
       </c>
       <c r="H35" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I35" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J35" t="n">
         <v>249.2363626397091</v>
       </c>
       <c r="K35" t="n">
-        <v>636.9590170723841</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L35" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M35" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N35" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601287</v>
       </c>
       <c r="P35" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R35" t="n">
-        <v>3555.079410784749</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S35" t="n">
-        <v>3486.886646926997</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T35" t="n">
         <v>3362.43399598216</v>
       </c>
       <c r="U35" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.63222037342</v>
       </c>
       <c r="V35" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X35" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y35" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7002,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F36" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G36" t="n">
         <v>220.9013999505779</v>
@@ -7011,25 +7011,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I36" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J36" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="K36" t="n">
-        <v>248.4841339826066</v>
+        <v>128.0155738864513</v>
       </c>
       <c r="L36" t="n">
-        <v>738.4664943445913</v>
+        <v>617.9979342484361</v>
       </c>
       <c r="M36" t="n">
-        <v>1362.232019552453</v>
+        <v>1046.953878598915</v>
       </c>
       <c r="N36" t="n">
-        <v>2018.213775527777</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O36" t="n">
-        <v>2551.893247555709</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P36" t="n">
         <v>2647.936865240548</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634036</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132396</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786469</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739967</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F37" t="n">
         <v>248.0385129538292</v>
@@ -7090,22 +7090,22 @@
         <v>106.41678735341</v>
       </c>
       <c r="I37" t="n">
-        <v>71.10158821569497</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715115</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476434</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021217</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885112</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O37" t="n">
         <v>1415.521203172264</v>
@@ -7114,7 +7114,7 @@
         <v>1623.344941642819</v>
       </c>
       <c r="Q37" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109221</v>
       </c>
       <c r="R37" t="n">
         <v>1669.080268457736</v>
@@ -7126,19 +7126,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U37" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V37" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W37" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X37" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>333.3796118921546</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350828</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569497</v>
@@ -7202,7 +7202,7 @@
         <v>3486.886646926997</v>
       </c>
       <c r="T38" t="n">
-        <v>3362.43399598216</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U38" t="n">
         <v>3199.632220373421</v>
@@ -7211,10 +7211,10 @@
         <v>2959.469363607594</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X38" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y38" t="n">
         <v>2115.795709833817</v>
@@ -7257,10 +7257,10 @@
         <v>502.2386301474694</v>
       </c>
       <c r="L39" t="n">
-        <v>992.2209905094542</v>
+        <v>625.0890486590296</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.526314340543</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N39" t="n">
         <v>1494.959119715748</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.2942540634033</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C40" t="n">
-        <v>420.2581017132394</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D40" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E40" t="n">
-        <v>304.0284298739965</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F40" t="n">
-        <v>248.0385129538291</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G40" t="n">
-        <v>170.2750506853967</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H40" t="n">
-        <v>106.4167873534099</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I40" t="n">
         <v>71.10158821569497</v>
@@ -7336,46 +7336,46 @@
         <v>322.4370930476438</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885103</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N40" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O40" t="n">
-        <v>1415.521203172264</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P40" t="n">
-        <v>1623.344941642818</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q40" t="n">
         <v>1711.205292109221</v>
       </c>
       <c r="R40" t="n">
-        <v>1669.080268457735</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S40" t="n">
-        <v>1551.552796903628</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016167</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U40" t="n">
         <v>1218.326354289323</v>
       </c>
       <c r="V40" t="n">
-        <v>1054.541896661179</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019615</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X40" t="n">
-        <v>718.9352368816872</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.0426883159</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1581.420119460086</v>
+        <v>1854.509663800455</v>
       </c>
       <c r="C41" t="n">
-        <v>1259.519269562403</v>
+        <v>1532.608813902772</v>
       </c>
       <c r="D41" t="n">
-        <v>948.3152379983806</v>
+        <v>1221.404782338749</v>
       </c>
       <c r="E41" t="n">
-        <v>609.5886524428646</v>
+        <v>882.678196783233</v>
       </c>
       <c r="F41" t="n">
-        <v>441.2539895819511</v>
+        <v>518.7539590363535</v>
       </c>
       <c r="G41" t="n">
-        <v>71.10158821569496</v>
+        <v>148.6015576700972</v>
       </c>
       <c r="H41" t="n">
-        <v>71.10158821569496</v>
+        <v>148.6015576700972</v>
       </c>
       <c r="I41" t="n">
         <v>71.10158821569496</v>
@@ -7448,13 +7448,13 @@
         <v>2896.1470368603</v>
       </c>
       <c r="W41" t="n">
-        <v>2590.440048632915</v>
+        <v>2590.440048632914</v>
       </c>
       <c r="X41" t="n">
-        <v>2264.035957414563</v>
+        <v>2264.035957414562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1920.95829248148</v>
+        <v>2194.047836821849</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>183.5040598342602</v>
       </c>
       <c r="K42" t="n">
-        <v>482.2851161049648</v>
+        <v>502.2386301474694</v>
       </c>
       <c r="L42" t="n">
-        <v>605.135534616525</v>
+        <v>992.2209905094542</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.901059824387</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N42" t="n">
         <v>1884.88281579971</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.3345183533238</v>
+        <v>415.4293564439862</v>
       </c>
       <c r="C43" t="n">
-        <v>583.4600024681453</v>
+        <v>293.5548405588073</v>
       </c>
       <c r="D43" t="n">
-        <v>480.4050300985378</v>
+        <v>293.5548405588073</v>
       </c>
       <c r="E43" t="n">
-        <v>379.5536035588731</v>
+        <v>192.7034140191423</v>
       </c>
       <c r="F43" t="n">
-        <v>379.5536035588731</v>
+        <v>192.7034140191423</v>
       </c>
       <c r="G43" t="n">
-        <v>257.9517777554261</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="H43" t="n">
-        <v>150.2551508884246</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="I43" t="n">
         <v>71.10158821569496</v>
       </c>
       <c r="J43" t="n">
-        <v>95.78254177084401</v>
+        <v>95.78254177084376</v>
       </c>
       <c r="K43" t="n">
-        <v>236.505132846308</v>
+        <v>236.5051328463076</v>
       </c>
       <c r="L43" t="n">
-        <v>459.2088761001185</v>
+        <v>459.2088761001178</v>
       </c>
       <c r="M43" t="n">
-        <v>701.9005181858402</v>
+        <v>701.9005181858392</v>
       </c>
       <c r="N43" t="n">
-        <v>945.3528646184265</v>
+        <v>945.3528646184253</v>
       </c>
       <c r="O43" t="n">
-        <v>1157.725322568258</v>
+        <v>1157.725322568256</v>
       </c>
       <c r="P43" t="n">
-        <v>1322.583080938145</v>
+        <v>1322.583080938143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.477451303879</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="R43" t="n">
-        <v>1355.945947186048</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="S43" t="n">
-        <v>1194.580112096926</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="T43" t="n">
-        <v>1194.580112096926</v>
+        <v>1188.667880881402</v>
       </c>
       <c r="U43" t="n">
-        <v>1194.580112096926</v>
+        <v>973.2995410810196</v>
       </c>
       <c r="V43" t="n">
-        <v>1194.580112096926</v>
+        <v>973.2995410810196</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.580112096926</v>
+        <v>730.944038086787</v>
       </c>
       <c r="X43" t="n">
-        <v>1013.652228241637</v>
+        <v>550.0161542314978</v>
       </c>
       <c r="Y43" t="n">
-        <v>839.9213161408352</v>
+        <v>550.0161542314978</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1956.351273083691</v>
+        <v>2049.46447563814</v>
       </c>
       <c r="C44" t="n">
-        <v>1634.450423186008</v>
+        <v>1727.563625740456</v>
       </c>
       <c r="D44" t="n">
-        <v>1323.246391621986</v>
+        <v>1416.359594176434</v>
       </c>
       <c r="E44" t="n">
-        <v>984.5198060664699</v>
+        <v>1077.633008620918</v>
       </c>
       <c r="F44" t="n">
-        <v>620.5955683195907</v>
+        <v>713.708770874038</v>
       </c>
       <c r="G44" t="n">
-        <v>250.4431669533346</v>
+        <v>343.5563695077817</v>
       </c>
       <c r="H44" t="n">
         <v>71.10158821569496</v>
@@ -7682,16 +7682,16 @@
         <v>3555.079410784748</v>
       </c>
       <c r="V44" t="n">
-        <v>3271.078190483905</v>
+        <v>3364.191393038355</v>
       </c>
       <c r="W44" t="n">
-        <v>2965.37120225652</v>
+        <v>3058.484404810969</v>
       </c>
       <c r="X44" t="n">
-        <v>2638.967111038168</v>
+        <v>2732.080313592617</v>
       </c>
       <c r="Y44" t="n">
-        <v>2295.889446105085</v>
+        <v>2389.002648659533</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>71.10158821569496</v>
       </c>
       <c r="J45" t="n">
-        <v>71.10158821569496</v>
+        <v>183.5040598342602</v>
       </c>
       <c r="K45" t="n">
-        <v>128.0155738864513</v>
+        <v>502.2386301474694</v>
       </c>
       <c r="L45" t="n">
-        <v>617.9979342484361</v>
+        <v>992.2209905094542</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.763459456298</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.745215431621</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O45" t="n">
-        <v>2431.424687459554</v>
+        <v>2028.638591743681</v>
       </c>
       <c r="P45" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7804,49 +7804,49 @@
         <v>71.10158821569496</v>
       </c>
       <c r="J46" t="n">
-        <v>95.78254177084401</v>
+        <v>95.78254177084376</v>
       </c>
       <c r="K46" t="n">
-        <v>236.505132846308</v>
+        <v>236.5051328463076</v>
       </c>
       <c r="L46" t="n">
-        <v>459.2088761001185</v>
+        <v>459.2088761001178</v>
       </c>
       <c r="M46" t="n">
-        <v>701.9005181858402</v>
+        <v>701.9005181858392</v>
       </c>
       <c r="N46" t="n">
-        <v>945.3528646184265</v>
+        <v>945.3528646184253</v>
       </c>
       <c r="O46" t="n">
-        <v>1157.725322568258</v>
+        <v>1157.725322568256</v>
       </c>
       <c r="P46" t="n">
-        <v>1322.583080938145</v>
+        <v>1322.583080938143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.477451303879</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.477451303879</v>
+        <v>1367.477451303878</v>
       </c>
       <c r="S46" t="n">
-        <v>1206.111616214758</v>
+        <v>1206.111616214756</v>
       </c>
       <c r="T46" t="n">
-        <v>1027.302045792282</v>
+        <v>1027.30204579228</v>
       </c>
       <c r="U46" t="n">
-        <v>875.7387083291767</v>
+        <v>875.7387083291776</v>
       </c>
       <c r="V46" t="n">
-        <v>668.1158871660181</v>
+        <v>668.1158871660188</v>
       </c>
       <c r="W46" t="n">
-        <v>425.7603841717857</v>
+        <v>425.7603841717862</v>
       </c>
       <c r="X46" t="n">
-        <v>244.8325003164967</v>
+        <v>244.832500316497</v>
       </c>
       <c r="Y46" t="n">
         <v>71.10158821569496</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,10 +8298,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.55318522064589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>263.7753401329269</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>201.8848144704579</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>8.14756411877697</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>298.3077039505384</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064586</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>298.3077039505384</v>
+        <v>121.6854142385394</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>160.1897088239658</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>298.3077039505375</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064596</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>160.1897088239658</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>121.6854142385406</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>160.1897088239663</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>88.34696435069569</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,13 +10665,13 @@
         <v>12.55318522064596</v>
       </c>
       <c r="K36" t="n">
-        <v>121.6854142385406</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>268.9277093486033</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>160.1897088239663</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.32499037742559</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504506</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>244.31017232318</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>88.34696435069569</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>12.55318522064596</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11385,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>88.34696435069569</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>121.6854142385406</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-13</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>193.633679137106</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>269.7302334791656</v>
+        <v>269.7302334791658</v>
       </c>
       <c r="I41" t="n">
-        <v>76.72496975985794</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.9108161188389</v>
+        <v>110.9108161188391</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>270.3586488969668</v>
       </c>
     </row>
     <row r="42">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.0244226459116</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.82999765063022</v>
+        <v>98.82999765063046</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>106.6196605983317</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.36202704600257</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.6875642379818</v>
+        <v>85.10375331463561</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>159.7521767382305</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0214747182511</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.6726632692401</v>
+        <v>26.45800686686226</v>
       </c>
       <c r="V43" t="n">
-        <v>205.546592951527</v>
+        <v>205.5465929515272</v>
       </c>
       <c r="W43" t="n">
-        <v>239.93194796429</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>171.993602979794</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>92.18207052890236</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.72496975985794</v>
+        <v>76.72496975985817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.9108161188389</v>
+        <v>110.9108161188391</v>
       </c>
       <c r="T44" t="n">
-        <v>166.6081043350525</v>
+        <v>166.6081043350528</v>
       </c>
       <c r="U44" t="n">
-        <v>204.5737377523162</v>
+        <v>204.5737377523164</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>92.18207052890554</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.2409298096363</v>
+        <v>133.2409298096365</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6557707263268</v>
+        <v>120.655770726327</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0244226459113</v>
+        <v>102.0244226459116</v>
       </c>
       <c r="E46" t="n">
-        <v>99.84291227426814</v>
+        <v>99.84291227426839</v>
       </c>
       <c r="F46" t="n">
-        <v>98.82999765063022</v>
+        <v>98.82999765063046</v>
       </c>
       <c r="G46" t="n">
-        <v>120.3858075454126</v>
+        <v>120.3858075454128</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6196605983314</v>
+        <v>106.6196605983317</v>
       </c>
       <c r="I46" t="n">
-        <v>78.36202704600234</v>
+        <v>78.36202704600257</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10375331463538</v>
+        <v>85.10375331463561</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>89.62495918076576</v>
+        <v>89.62495918076914</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681291.1028261678</v>
+        <v>681291.1028261677</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619969.3894028034</v>
+        <v>619969.389402803</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619969.3894028034</v>
+        <v>619969.3894028032</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="F2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="I2" t="n">
-        <v>779989.6813710703</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710709</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="K2" t="n">
         <v>779989.6813710702</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="M2" t="n">
+        <v>779989.6813710687</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710702</v>
       </c>
-      <c r="N2" t="n">
-        <v>779989.6813710701</v>
-      </c>
       <c r="O2" t="n">
-        <v>707170.146680825</v>
+        <v>707170.1466808249</v>
       </c>
       <c r="P2" t="n">
-        <v>707170.146680825</v>
+        <v>707170.1466808249</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717213.3002186428</v>
+        <v>717213.3002186429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135052.7668166786</v>
+        <v>135052.7668166785</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>161423.2775258325</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37272.84029784083</v>
+        <v>37272.84029784061</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,13 +26436,13 @@
         <v>116374.9187216599</v>
       </c>
       <c r="I4" t="n">
+        <v>116374.91872166</v>
+      </c>
+      <c r="J4" t="n">
         <v>116374.9187216599</v>
       </c>
-      <c r="J4" t="n">
-        <v>116374.91872166</v>
-      </c>
       <c r="K4" t="n">
-        <v>116374.91872166</v>
+        <v>116374.9187216599</v>
       </c>
       <c r="L4" t="n">
         <v>116374.91872166</v>
@@ -26454,10 +26454,10 @@
         <v>116374.9187216599</v>
       </c>
       <c r="O4" t="n">
-        <v>72517.25462297144</v>
+        <v>72517.25462297117</v>
       </c>
       <c r="P4" t="n">
-        <v>72517.25462297142</v>
+        <v>72517.25462297117</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="F5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="G5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="H5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788875</v>
       </c>
       <c r="I5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
+        <v>73862.4692578887</v>
+      </c>
+      <c r="K5" t="n">
         <v>73862.46925788872</v>
       </c>
-      <c r="K5" t="n">
-        <v>73862.46925788873</v>
-      </c>
       <c r="L5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="M5" t="n">
         <v>73862.46925788872</v>
       </c>
       <c r="N5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="O5" t="n">
-        <v>70213.87634770382</v>
+        <v>70213.8763477038</v>
       </c>
       <c r="P5" t="n">
-        <v>70213.87634770382</v>
+        <v>70213.8763477038</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>346711.1852286814</v>
+        <v>346711.1852286812</v>
       </c>
       <c r="C6" t="n">
         <v>427480.6167602291</v>
       </c>
       <c r="D6" t="n">
-        <v>427480.6167602291</v>
+        <v>427480.6167602292</v>
       </c>
       <c r="E6" t="n">
-        <v>-127461.0068271225</v>
+        <v>-127461.0068271226</v>
       </c>
       <c r="F6" t="n">
         <v>589752.2933915203</v>
       </c>
       <c r="G6" t="n">
-        <v>589752.29339152</v>
+        <v>589752.2933915203</v>
       </c>
       <c r="H6" t="n">
-        <v>589752.2933915204</v>
+        <v>589752.2933915203</v>
       </c>
       <c r="I6" t="n">
-        <v>589752.2933915217</v>
+        <v>589752.293391521</v>
       </c>
       <c r="J6" t="n">
-        <v>454699.5265748437</v>
+        <v>454699.5265748433</v>
       </c>
       <c r="K6" t="n">
         <v>589752.2933915216</v>
       </c>
       <c r="L6" t="n">
-        <v>589752.2933915206</v>
+        <v>589752.293391521</v>
       </c>
       <c r="M6" t="n">
-        <v>428329.015865689</v>
+        <v>428329.0158656875</v>
       </c>
       <c r="N6" t="n">
-        <v>589752.2933915214</v>
+        <v>589752.2933915216</v>
       </c>
       <c r="O6" t="n">
-        <v>527166.1754123089</v>
+        <v>526974.5450578614</v>
       </c>
       <c r="P6" t="n">
-        <v>564439.0157101498</v>
+        <v>564247.3853557019</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F2" t="n">
         <v>89.99103027196547</v>
@@ -26707,25 +26707,25 @@
         <v>89.99103027196547</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L2" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M2" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N2" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="P2" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>562.3764353223252</v>
+      </c>
+      <c r="F3" t="n">
         <v>562.3764353223251</v>
       </c>
-      <c r="F3" t="n">
-        <v>562.3764353223248</v>
-      </c>
       <c r="G3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223252</v>
       </c>
       <c r="H3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223251</v>
       </c>
       <c r="I3" t="n">
-        <v>562.3764353223248</v>
+        <v>562.3764353223247</v>
       </c>
       <c r="J3" t="n">
         <v>562.3764353223247</v>
@@ -26796,31 +26796,31 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="G4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="H4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961873</v>
+        <v>888.7698526961875</v>
       </c>
       <c r="J4" t="n">
         <v>888.7698526961869</v>
       </c>
       <c r="K4" t="n">
-        <v>888.7698526961871</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="L4" t="n">
-        <v>888.7698526961871</v>
+        <v>888.7698526961872</v>
       </c>
       <c r="M4" t="n">
-        <v>888.7698526961872</v>
+        <v>888.7698526961869</v>
       </c>
       <c r="N4" t="n">
         <v>888.7698526961872</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230104</v>
+        <v>46.59105037230076</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223252</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>647.7555638185283</v>
+        <v>647.7555638185285</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776587</v>
+        <v>241.0142888776585</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185285</v>
+        <v>647.7555638185282</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185283</v>
+        <v>647.7555638185285</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>186.2617493458957</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.18418061884682</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>60.4686871539992</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27518,7 +27518,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>152.5970991193535</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27752,16 +27752,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>77.41542778581604</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>195.8645489375322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27792,7 +27792,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>333.09447488872</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>107.548612162413</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,19 +27932,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>110.3628746391217</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>197.9358824681333</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954651</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196547</v>
       </c>
     </row>
     <row r="14">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S14" t="n">
         <v>89.99103027196547</v>
@@ -28506,7 +28506,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196514</v>
       </c>
       <c r="K16" t="n">
         <v>89.99103027196547</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954651</v>
       </c>
       <c r="S17" t="n">
         <v>89.99103027196547</v>
@@ -28743,7 +28743,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196563</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="K19" t="n">
         <v>89.99103027196547</v>
@@ -28755,7 +28755,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196503</v>
       </c>
       <c r="O19" t="n">
         <v>89.99103027196547</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954954679</v>
       </c>
       <c r="S20" t="n">
         <v>89.99103027196547</v>
@@ -28980,7 +28980,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196514</v>
       </c>
       <c r="K22" t="n">
         <v>89.99103027196547</v>
@@ -28992,7 +28992,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O22" t="n">
         <v>89.99103027196547</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954736</v>
+        <v>7.853524954957015</v>
       </c>
       <c r="S23" t="n">
         <v>89.99103027196547</v>
@@ -29229,7 +29229,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="O25" t="n">
         <v>89.99103027196547</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196557</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196556</v>
+        <v>89.99103027196549</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>7.853524954954764</v>
+        <v>7.853524954955665</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196554</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J37" t="n">
-        <v>89.99103027196519</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196449</v>
       </c>
       <c r="P37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.9910302719655</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M40" t="n">
-        <v>89.99103027196404</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196452</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y40" t="n">
-        <v>89.99103027196554</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="C41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="D41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="E41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="F41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="G41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="H41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="I41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="T41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="U41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="V41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="W41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="X41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="C43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="D43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="E43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="F43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="G43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="H43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="I43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="J43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="L43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="M43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="N43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="O43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="P43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="R43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="S43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="T43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="U43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="V43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="W43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="X43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="C44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="D44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="E44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="F44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="G44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="H44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>7.853524954954764</v>
       </c>
       <c r="S44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="T44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="U44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="V44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="W44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="X44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="E46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="F46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="G46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="H46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="I46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="J46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="K46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="L46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="M46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="N46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="O46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="P46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="S46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="T46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="U46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="V46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="W46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="X46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.59105037230103</v>
+        <v>46.59105037230078</v>
       </c>
     </row>
   </sheetData>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.260809790240501</v>
+        <v>2.260809790240502</v>
       </c>
       <c r="H11" t="n">
         <v>23.15351826430054</v>
       </c>
       <c r="I11" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824701</v>
       </c>
       <c r="J11" t="n">
         <v>191.8834049344249</v>
@@ -31771,13 +31771,13 @@
         <v>396.9784170805677</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970886</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453846</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488222</v>
       </c>
       <c r="Q11" t="n">
         <v>244.1420232358341</v>
@@ -31786,13 +31786,13 @@
         <v>142.015592986195</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510548</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777799</v>
+        <v>9.896694856777801</v>
       </c>
       <c r="U11" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192401</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,19 +31832,19 @@
         <v>1.209639879749907</v>
       </c>
       <c r="H12" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811095</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226653</v>
+        <v>41.64768884226654</v>
       </c>
       <c r="J12" t="n">
         <v>114.2844414460208</v>
       </c>
       <c r="K12" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892646</v>
       </c>
       <c r="L12" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097331</v>
       </c>
       <c r="M12" t="n">
         <v>306.4951572506671</v>
@@ -31856,22 +31856,22 @@
         <v>287.8040989333035</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515415</v>
       </c>
       <c r="Q12" t="n">
         <v>154.4094695624618</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587583</v>
       </c>
       <c r="S12" t="n">
         <v>22.4685302225476</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483176</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617812</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,34 +31911,34 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807121</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895495</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068396</v>
+        <v>71.69838586068397</v>
       </c>
       <c r="K13" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429396</v>
       </c>
       <c r="L13" t="n">
         <v>150.7722003813329</v>
       </c>
       <c r="M13" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797189</v>
       </c>
       <c r="N13" t="n">
-        <v>155.1882382914869</v>
+        <v>155.188238291487</v>
       </c>
       <c r="O13" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064183</v>
       </c>
       <c r="P13" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152166</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367109</v>
+        <v>84.9188417336711</v>
       </c>
       <c r="R13" t="n">
         <v>45.5985876902331</v>
@@ -31947,10 +31947,10 @@
         <v>17.67337092644093</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729389</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.05531571494973696</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I14" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L14" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R14" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U14" t="n">
         <v>0.18086478321924</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H15" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J15" t="n">
         <v>114.2844414460208</v>
@@ -32084,31 +32084,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M15" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S15" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,19 +32148,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K16" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M16" t="n">
         <v>158.9681454797188</v>
@@ -32175,19 +32175,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R16" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240502</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I17" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824701</v>
       </c>
       <c r="J17" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L17" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N17" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970886</v>
       </c>
       <c r="O17" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453846</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488222</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R17" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510548</v>
       </c>
       <c r="T17" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777801</v>
       </c>
       <c r="U17" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192401</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H18" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811095</v>
       </c>
       <c r="I18" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226654</v>
       </c>
       <c r="J18" t="n">
         <v>114.2844414460208</v>
       </c>
       <c r="K18" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892646</v>
       </c>
       <c r="L18" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097331</v>
       </c>
       <c r="M18" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N18" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515415</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R18" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587583</v>
       </c>
       <c r="S18" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483176</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617812</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807121</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895495</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068397</v>
       </c>
       <c r="K19" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429396</v>
       </c>
       <c r="L19" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M19" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797189</v>
       </c>
       <c r="N19" t="n">
-        <v>155.1882382914869</v>
+        <v>155.188238291487</v>
       </c>
       <c r="O19" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064183</v>
       </c>
       <c r="P19" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152166</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367104</v>
+        <v>84.9188417336711</v>
       </c>
       <c r="R19" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S19" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729389</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973696</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.2608097902405</v>
+        <v>2.260809790240501</v>
       </c>
       <c r="H20" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430054</v>
       </c>
       <c r="I20" t="n">
-        <v>87.15986943824696</v>
+        <v>87.159869438247</v>
       </c>
       <c r="J20" t="n">
-        <v>191.8834049344248</v>
+        <v>191.8834049344249</v>
       </c>
       <c r="K20" t="n">
-        <v>287.5834833553052</v>
+        <v>287.5834833553054</v>
       </c>
       <c r="L20" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733782</v>
       </c>
       <c r="M20" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805677</v>
       </c>
       <c r="N20" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970885</v>
       </c>
       <c r="O20" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453845</v>
       </c>
       <c r="P20" t="n">
-        <v>325.1072738488219</v>
+        <v>325.1072738488221</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358341</v>
       </c>
       <c r="R20" t="n">
-        <v>142.0155929861949</v>
+        <v>142.015592986195</v>
       </c>
       <c r="S20" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510547</v>
       </c>
       <c r="T20" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777799</v>
       </c>
       <c r="U20" t="n">
         <v>0.18086478321924</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.209639879749906</v>
+        <v>1.209639879749907</v>
       </c>
       <c r="H21" t="n">
         <v>11.68257462811094</v>
       </c>
       <c r="I21" t="n">
-        <v>41.64768884226651</v>
+        <v>41.64768884226653</v>
       </c>
       <c r="J21" t="n">
         <v>114.2844414460208</v>
@@ -32558,31 +32558,31 @@
         <v>262.645711609733</v>
       </c>
       <c r="M21" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506671</v>
       </c>
       <c r="N21" t="n">
-        <v>314.6071720582881</v>
+        <v>314.6071720582883</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333035</v>
       </c>
       <c r="P21" t="n">
-        <v>230.9881626515413</v>
+        <v>230.9881626515414</v>
       </c>
       <c r="Q21" t="n">
-        <v>154.4094695624617</v>
+        <v>154.4094695624618</v>
       </c>
       <c r="R21" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587581</v>
       </c>
       <c r="S21" t="n">
-        <v>22.46853022254759</v>
+        <v>22.4685302225476</v>
       </c>
       <c r="T21" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483175</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617811</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H22" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807119</v>
       </c>
       <c r="I22" t="n">
-        <v>30.49739750895493</v>
+        <v>30.49739750895494</v>
       </c>
       <c r="J22" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068396</v>
       </c>
       <c r="K22" t="n">
         <v>117.8224728429395</v>
       </c>
       <c r="L22" t="n">
-        <v>150.7722003813328</v>
+        <v>150.7722003813329</v>
       </c>
       <c r="M22" t="n">
         <v>158.9681454797188</v>
@@ -32649,19 +32649,19 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367109</v>
       </c>
       <c r="R22" t="n">
-        <v>45.59858769023307</v>
+        <v>45.5985876902331</v>
       </c>
       <c r="S22" t="n">
-        <v>17.67337092644092</v>
+        <v>17.67337092644093</v>
       </c>
       <c r="T22" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729388</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05531571494973692</v>
+        <v>0.05531571494973695</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,10 +32701,10 @@
         <v>2.2608097902405</v>
       </c>
       <c r="H23" t="n">
-        <v>23.15351826430053</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I23" t="n">
-        <v>87.15986943824696</v>
+        <v>87.15986943824694</v>
       </c>
       <c r="J23" t="n">
         <v>191.8834049344248</v>
@@ -32713,34 +32713,34 @@
         <v>287.5834833553052</v>
       </c>
       <c r="L23" t="n">
-        <v>356.772740973378</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M23" t="n">
-        <v>396.9784170805675</v>
+        <v>396.9784170805674</v>
       </c>
       <c r="N23" t="n">
-        <v>403.4019428970884</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O23" t="n">
-        <v>380.9210155453844</v>
+        <v>380.9210155453843</v>
       </c>
       <c r="P23" t="n">
         <v>325.1072738488219</v>
       </c>
       <c r="Q23" t="n">
-        <v>244.142023235834</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R23" t="n">
         <v>142.0155929861949</v>
       </c>
       <c r="S23" t="n">
-        <v>51.51820309510545</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T23" t="n">
-        <v>9.896694856777794</v>
+        <v>9.896694856777792</v>
       </c>
       <c r="U23" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>11.68257462811094</v>
       </c>
       <c r="I24" t="n">
-        <v>41.64768884226651</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K24" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L24" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M24" t="n">
-        <v>306.495157250667</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N24" t="n">
         <v>314.6071720582881</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8040989333034</v>
+        <v>287.8040989333033</v>
       </c>
       <c r="P24" t="n">
         <v>230.9881626515413</v>
@@ -32810,16 +32810,16 @@
         <v>154.4094695624617</v>
       </c>
       <c r="R24" t="n">
-        <v>75.10378130587578</v>
+        <v>75.10378130587577</v>
       </c>
       <c r="S24" t="n">
-        <v>22.46853022254759</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T24" t="n">
-        <v>4.875697585483173</v>
+        <v>4.875697585483172</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07958157103617808</v>
+        <v>0.07958157103617806</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.014121440745176</v>
       </c>
       <c r="H25" t="n">
-        <v>9.016461536807116</v>
+        <v>9.016461536807114</v>
       </c>
       <c r="I25" t="n">
         <v>30.49739750895493</v>
       </c>
       <c r="J25" t="n">
-        <v>71.69838586068393</v>
+        <v>71.69838586068391</v>
       </c>
       <c r="K25" t="n">
         <v>117.8224728429395</v>
@@ -32874,10 +32874,10 @@
         <v>150.7722003813328</v>
       </c>
       <c r="M25" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N25" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O25" t="n">
         <v>143.3414560064182</v>
@@ -32886,7 +32886,7 @@
         <v>122.6533786152165</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.91884173367104</v>
+        <v>84.91884173367103</v>
       </c>
       <c r="R25" t="n">
         <v>45.59858769023307</v>
@@ -32895,7 +32895,7 @@
         <v>17.67337092644092</v>
       </c>
       <c r="T25" t="n">
-        <v>4.333064337729386</v>
+        <v>4.333064337729385</v>
       </c>
       <c r="U25" t="n">
         <v>0.05531571494973692</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35413,19 +35413,19 @@
         <v>391.6390448814896</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538414</v>
+        <v>538.6675405538415</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461275</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124818</v>
       </c>
       <c r="O11" t="n">
-        <v>531.6229853864431</v>
+        <v>531.6229853864432</v>
       </c>
       <c r="P11" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650353</v>
       </c>
       <c r="Q11" t="n">
         <v>234.1513240212893</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K12" t="n">
-        <v>321.9541114274841</v>
+        <v>321.2642145478325</v>
       </c>
       <c r="L12" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333181</v>
       </c>
       <c r="M12" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286488</v>
       </c>
       <c r="N12" t="n">
-        <v>385.1502744454128</v>
+        <v>662.6078343185086</v>
       </c>
       <c r="O12" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P12" t="n">
-        <v>415.4765238771483</v>
+        <v>97.01375523721123</v>
       </c>
       <c r="Q12" t="n">
         <v>224.5049832122894</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K13" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L13" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M13" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N13" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O13" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P13" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L14" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O14" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P14" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K15" t="n">
-        <v>321.9541114274841</v>
+        <v>65.63643853368252</v>
       </c>
       <c r="L15" t="n">
-        <v>124.0913318298588</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786486</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6078343185084</v>
+        <v>662.6078343185085</v>
       </c>
       <c r="O15" t="n">
-        <v>145.2078544888589</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P15" t="n">
-        <v>395.3214591877496</v>
+        <v>97.01375523721117</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644028</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597633</v>
       </c>
       <c r="K16" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M16" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N16" t="n">
-        <v>289.3114409426809</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O16" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L17" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538415</v>
       </c>
       <c r="M17" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461275</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124818</v>
       </c>
       <c r="O17" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864432</v>
       </c>
       <c r="P17" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650353</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490561</v>
       </c>
       <c r="L18" t="n">
-        <v>124.0913318298588</v>
+        <v>494.9316771333181</v>
       </c>
       <c r="M18" t="n">
-        <v>630.0661870786486</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185084</v>
+        <v>662.6078343185086</v>
       </c>
       <c r="O18" t="n">
-        <v>145.2078544888589</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P18" t="n">
-        <v>395.3214591877496</v>
+        <v>218.6991694757507</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644031</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597678</v>
+        <v>68.33023601597667</v>
       </c>
       <c r="K19" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L19" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M19" t="n">
-        <v>288.5430527135248</v>
+        <v>288.543052713525</v>
       </c>
       <c r="N19" t="n">
-        <v>289.3114409426809</v>
+        <v>289.3114409426806</v>
       </c>
       <c r="O19" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P19" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394219</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>179.9341155798123</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K20" t="n">
-        <v>391.6390448814894</v>
+        <v>391.6390448814896</v>
       </c>
       <c r="L20" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538414</v>
       </c>
       <c r="M20" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461274</v>
       </c>
       <c r="N20" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O20" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864431</v>
       </c>
       <c r="P20" t="n">
-        <v>415.672986265035</v>
+        <v>415.6729862650352</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5378501197629</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K21" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L21" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298589</v>
       </c>
       <c r="M21" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N21" t="n">
-        <v>343.4551687989206</v>
+        <v>662.6078343185085</v>
       </c>
       <c r="O21" t="n">
-        <v>539.0701737655884</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P21" t="n">
-        <v>415.4765238771482</v>
+        <v>395.3214591877486</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.5049832122893</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597633</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L22" t="n">
-        <v>268.3532559136144</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M22" t="n">
-        <v>288.5430527135248</v>
+        <v>288.5430527135249</v>
       </c>
       <c r="N22" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O22" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924234</v>
       </c>
       <c r="P22" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L23" t="n">
-        <v>538.6675405538413</v>
+        <v>538.6675405538411</v>
       </c>
       <c r="M23" t="n">
-        <v>616.1457173461273</v>
+        <v>616.1457173461272</v>
       </c>
       <c r="N23" t="n">
-        <v>611.3358037124816</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O23" t="n">
-        <v>531.622985386443</v>
+        <v>531.6229853864429</v>
       </c>
       <c r="P23" t="n">
         <v>415.672986265035</v>
       </c>
       <c r="Q23" t="n">
-        <v>234.1513240212892</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5378501197629</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490544</v>
       </c>
       <c r="L24" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M24" t="n">
-        <v>164.3611233286487</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N24" t="n">
-        <v>343.4551687989206</v>
+        <v>662.6078343185084</v>
       </c>
       <c r="O24" t="n">
         <v>539.0701737655884</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771482</v>
+        <v>218.6991694757516</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.5049832122893</v>
+        <v>14.42769547644019</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597662</v>
+        <v>68.33023601597661</v>
       </c>
       <c r="K25" t="n">
         <v>185.5440112890221</v>
@@ -36525,7 +36525,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N25" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O25" t="n">
         <v>257.9176141924233</v>
@@ -36534,7 +36534,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394212</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597671</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K28" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L28" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M28" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O28" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394222</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597669</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L31" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M31" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N31" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O31" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P31" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.7478287539422</v>
+        <v>88.74782875394213</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>494.9316771333179</v>
       </c>
       <c r="M33" t="n">
-        <v>324.5508321526149</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N33" t="n">
-        <v>183.2654599749548</v>
+        <v>271.6124243256505</v>
       </c>
       <c r="O33" t="n">
-        <v>539.0701737655884</v>
+        <v>145.2078544888589</v>
       </c>
       <c r="P33" t="n">
         <v>415.4765238771482</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597668</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L34" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M34" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N34" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O34" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>179.1742886534461</v>
+        <v>57.48887441490544</v>
       </c>
       <c r="L36" t="n">
         <v>494.9316771333179</v>
       </c>
       <c r="M36" t="n">
-        <v>630.0661870786485</v>
+        <v>433.2888326772519</v>
       </c>
       <c r="N36" t="n">
         <v>662.6078343185084</v>
@@ -37400,7 +37400,7 @@
         <v>539.0701737655884</v>
       </c>
       <c r="P36" t="n">
-        <v>97.01375523721103</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q36" t="n">
         <v>14.42769547644019</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.33023601597633</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K37" t="n">
         <v>185.5440112890221</v>
@@ -37476,13 +37476,13 @@
         <v>289.311440942681</v>
       </c>
       <c r="O37" t="n">
-        <v>257.9176141924233</v>
+        <v>257.9176141924223</v>
       </c>
       <c r="P37" t="n">
-        <v>209.9229681520754</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.74782875394214</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>321.954111427484</v>
       </c>
       <c r="L39" t="n">
-        <v>494.9316771333179</v>
+        <v>124.0913318298587</v>
       </c>
       <c r="M39" t="n">
-        <v>324.5508321526149</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N39" t="n">
-        <v>183.2654599749548</v>
+        <v>248.5904503523804</v>
       </c>
       <c r="O39" t="n">
         <v>539.0701737655884</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.33023601597668</v>
+        <v>68.33023601597665</v>
       </c>
       <c r="K40" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L40" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M40" t="n">
-        <v>288.5430527135234</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N40" t="n">
         <v>289.311440942681</v>
@@ -37716,10 +37716,10 @@
         <v>257.9176141924233</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520745</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>391.6390448814894</v>
       </c>
       <c r="L41" t="n">
-        <v>538.6675405538411</v>
+        <v>538.6675405538413</v>
       </c>
       <c r="M41" t="n">
         <v>616.1457173461272</v>
@@ -37795,7 +37795,7 @@
         <v>531.6229853864429</v>
       </c>
       <c r="P41" t="n">
-        <v>415.6729862650348</v>
+        <v>415.672986265035</v>
       </c>
       <c r="Q41" t="n">
         <v>234.1513240212891</v>
@@ -37859,16 +37859,16 @@
         <v>113.5378501197629</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7990467380855</v>
+        <v>321.954111427484</v>
       </c>
       <c r="L42" t="n">
-        <v>124.0913318298587</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M42" t="n">
         <v>630.0661870786485</v>
       </c>
       <c r="N42" t="n">
-        <v>662.6078343185084</v>
+        <v>271.6124243256505</v>
       </c>
       <c r="O42" t="n">
         <v>145.2078544888589</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.93025611631217</v>
+        <v>24.93025611631192</v>
       </c>
       <c r="K43" t="n">
-        <v>142.1440313893576</v>
+        <v>142.1440313893574</v>
       </c>
       <c r="L43" t="n">
-        <v>224.9532760139499</v>
+        <v>224.9532760139497</v>
       </c>
       <c r="M43" t="n">
-        <v>245.1430728138604</v>
+        <v>245.1430728138601</v>
       </c>
       <c r="N43" t="n">
-        <v>245.9114610430165</v>
+        <v>245.9114610430162</v>
       </c>
       <c r="O43" t="n">
-        <v>214.5176342927589</v>
+        <v>214.5176342927586</v>
       </c>
       <c r="P43" t="n">
-        <v>166.522988252411</v>
+        <v>166.5229882524108</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.34784885427767</v>
+        <v>45.34784885427743</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K45" t="n">
-        <v>57.48887441490544</v>
+        <v>321.954111427484</v>
       </c>
       <c r="L45" t="n">
         <v>494.9316771333179</v>
@@ -38105,16 +38105,16 @@
         <v>630.0661870786485</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185084</v>
+        <v>271.6124243256505</v>
       </c>
       <c r="O45" t="n">
-        <v>539.0701737655884</v>
+        <v>145.2078544888589</v>
       </c>
       <c r="P45" t="n">
-        <v>218.6991694757516</v>
+        <v>415.4765238771482</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.42769547644019</v>
+        <v>224.5049832122893</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93025611631217</v>
+        <v>24.93025611631192</v>
       </c>
       <c r="K46" t="n">
-        <v>142.1440313893576</v>
+        <v>142.1440313893574</v>
       </c>
       <c r="L46" t="n">
-        <v>224.9532760139499</v>
+        <v>224.9532760139497</v>
       </c>
       <c r="M46" t="n">
-        <v>245.1430728138604</v>
+        <v>245.1430728138601</v>
       </c>
       <c r="N46" t="n">
-        <v>245.9114610430165</v>
+        <v>245.9114610430162</v>
       </c>
       <c r="O46" t="n">
-        <v>214.5176342927589</v>
+        <v>214.5176342927586</v>
       </c>
       <c r="P46" t="n">
-        <v>166.522988252411</v>
+        <v>166.5229882524108</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.34784885427767</v>
+        <v>45.34784885427743</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
